--- a/src/main/resources/config/chargeList.xlsx
+++ b/src/main/resources/config/chargeList.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839ED432-D30C-4541-9983-9D82F3AE0072}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1950" windowWidth="21600" windowHeight="11490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="门店信息" sheetId="4" r:id="rId1"/>
     <sheet name="商品表" sheetId="3" r:id="rId2"/>
     <sheet name="充值" sheetId="2" r:id="rId3"/>
+    <sheet name="使用说明" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
   <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,67 +31,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>游戏方后端判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏方前端显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏方发送道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八点半扣费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品道具单价格*商品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赠 活动门票x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠 活动门票x5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠 活动门票x10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠 活动门票x20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠 活动门票x30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠 活动门票x40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文本信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏方后端判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏方前端显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏方发送道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八点半扣费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品道具单价格*商品数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名字</t>
+    <t>游戏方→八点半发送道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOVE餐巾纸酒券x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情（暂无）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remoteClubId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsPicture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticketNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属门店ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,55 +147,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏方→八点半发送道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOVE餐巾纸酒券x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情（暂无）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remoteClubId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsPicture</t>
+    <t>商品图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏门票数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属门店I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPHONE券-测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUCCI券-测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEATS券-测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YSL券-测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油卡-测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价（RMB）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京西路信达大厦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOVE-开发测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品图片编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOVE餐巾纸酒券-测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄送类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VXOP-测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MORGAN-测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WINDSOR-测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端显示价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOVE餐巾纸酒券x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOVE餐巾纸酒券x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOVE餐巾纸酒券x20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOVE餐巾纸酒券x30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOVE餐巾纸酒券x40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -155,182 +291,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>有效期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.6.24-2019.12.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用时间：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用范围：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用规则：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·无需预约，消费高峰期可能需要等位</t>
+  </si>
+  <si>
+    <t>·商家提供免费WIFI</t>
+  </si>
+  <si>
+    <t>·停车位收费标准：详询商家</t>
+  </si>
+  <si>
+    <t>·不可叠加使用</t>
+  </si>
+  <si>
+    <t>·不计算卡座消费内容</t>
+  </si>
+  <si>
+    <t>·全场通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·21:00-03:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'&lt;font size="20"&gt;&lt;b&gt;使用时间：&lt;/b&gt;\n·21:00-03:00\n\n&lt;b&gt;适用范围：&lt;/b&gt;\n·全场通用\n\n&lt;b&gt;使用规则：&lt;/b&gt;\n·无需预约，消费高峰期可能需要等位\n·商家提供免费WIFI\n·停车位收费标准：详询商家\n·不可叠加使用\n·不计算卡座消费内容&lt;/font&gt;'</t>
+  </si>
+  <si>
+    <t>八点半商品url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font size=20&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ticketTitle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ticketNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归属门店ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏门票数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归属门店I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPHONE券-测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUCCI券-测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEATS券-测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YSL券-测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加油卡-测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价（RMB）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京西路信达大厦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOVE-开发测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品图片编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOVE餐巾纸酒券-测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄送类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VXOP-测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MORGAN-测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WINDSOR-测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端显示价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOVE餐巾纸酒券x5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOVE餐巾纸酒券x10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOVE餐巾纸酒券x20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOVE餐巾纸酒券x30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOVE餐巾纸酒券x40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
+    <t>幸运门票x1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,7 +554,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,26 +587,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,23 +622,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -801,7 +797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -818,19 +814,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -838,16 +834,16 @@
         <v>2037</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1">
         <v>12345678</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -858,11 +854,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -873,50 +869,54 @@
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -925,30 +925,33 @@
         <v>6</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1">
         <v>999999</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="2">
+        <v>69</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -962,21 +965,24 @@
         <v>999999</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="2">
+        <v>69</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -990,21 +996,24 @@
         <v>999999</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="2">
+        <v>69</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1018,21 +1027,24 @@
         <v>999999</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="2">
+        <v>69</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1046,21 +1058,24 @@
         <v>999999</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="2">
+        <v>69</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1074,21 +1089,24 @@
         <v>999999</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="2">
+        <v>69</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>71</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1102,21 +1120,24 @@
         <v>999999</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="2">
+        <v>69</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="2">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1130,21 +1151,24 @@
         <v>999999</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="2">
+        <v>69</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="2">
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1158,9 +1182,12 @@
         <v>999999</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="2">
+        <v>69</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="2">
         <v>1500</v>
       </c>
     </row>
@@ -1172,11 +1199,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1196,64 +1223,64 @@
     <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>0</v>
@@ -1261,37 +1288,37 @@
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L3" s="7"/>
     </row>
@@ -1306,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>49</v>
@@ -1315,22 +1342,22 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="I4" s="1">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1344,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1">
         <v>49</v>
@@ -1353,22 +1380,22 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="I5" s="1">
-        <v>50</v>
+        <v>0.01</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="K5" s="1">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1382,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1">
         <v>49</v>
@@ -1391,22 +1418,22 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="I6" s="1">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="K6" s="1">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1420,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1">
         <v>49</v>
@@ -1429,22 +1456,22 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="I7" s="1">
-        <v>200</v>
+        <v>0.01</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="K7" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1458,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1">
         <v>49</v>
@@ -1467,22 +1494,22 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="I8" s="1">
-        <v>300</v>
+        <v>0.01</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="K8" s="1">
-        <v>30</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1496,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1">
         <v>49</v>
@@ -1505,22 +1532,22 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="I9" s="1">
-        <v>400</v>
+        <v>0.01</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="K9" s="1">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1532,4 +1559,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="35.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="str">
+        <f>IF(MID(A1,1,1)="·",1,"")</f>
+        <v/>
+      </c>
+      <c r="C1" t="str">
+        <f>IF(B1="",CONCATENATE("&lt;b&gt;",A1,"&lt;/b&gt;"),CONCATENATE("#",A1))</f>
+        <v>&lt;b&gt;使用时间：&lt;/b&gt;</v>
+      </c>
+      <c r="D1" t="str">
+        <f>C1</f>
+        <v>&lt;b&gt;使用时间：&lt;/b&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B10" si="0">IF(MID(A2,1,1)="·",1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(B2="",CONCATENATE("##&lt;b&gt;",A2,"&lt;/b&gt;"),CONCATENATE("# ",A2))</f>
+        <v># ·21:00-03:00</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE(D1,C2)</f>
+        <v>&lt;b&gt;使用时间：&lt;/b&gt;# ·21:00-03:00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C10" si="1">IF(B3="",CONCATENATE("##&lt;b&gt;",A3,"&lt;/b&gt;"),CONCATENATE("# ",A3))</f>
+        <v>##&lt;b&gt;适用范围：&lt;/b&gt;</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D10" si="2">CONCATENATE(D2,C3)</f>
+        <v>&lt;b&gt;使用时间：&lt;/b&gt;# ·21:00-03:00##&lt;b&gt;适用范围：&lt;/b&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v># ·全场通用</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;b&gt;使用时间：&lt;/b&gt;# ·21:00-03:00##&lt;b&gt;适用范围：&lt;/b&gt;# ·全场通用</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>##&lt;b&gt;使用规则：&lt;/b&gt;</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;b&gt;使用时间：&lt;/b&gt;# ·21:00-03:00##&lt;b&gt;适用范围：&lt;/b&gt;# ·全场通用##&lt;b&gt;使用规则：&lt;/b&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v># ·无需预约，消费高峰期可能需要等位</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;b&gt;使用时间：&lt;/b&gt;# ·21:00-03:00##&lt;b&gt;适用范围：&lt;/b&gt;# ·全场通用##&lt;b&gt;使用规则：&lt;/b&gt;# ·无需预约，消费高峰期可能需要等位</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v># ·商家提供免费WIFI</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;b&gt;使用时间：&lt;/b&gt;# ·21:00-03:00##&lt;b&gt;适用范围：&lt;/b&gt;# ·全场通用##&lt;b&gt;使用规则：&lt;/b&gt;# ·无需预约，消费高峰期可能需要等位# ·商家提供免费WIFI</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v># ·停车位收费标准：详询商家</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;b&gt;使用时间：&lt;/b&gt;# ·21:00-03:00##&lt;b&gt;适用范围：&lt;/b&gt;# ·全场通用##&lt;b&gt;使用规则：&lt;/b&gt;# ·无需预约，消费高峰期可能需要等位# ·商家提供免费WIFI# ·停车位收费标准：详询商家</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v># ·不可叠加使用</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;b&gt;使用时间：&lt;/b&gt;# ·21:00-03:00##&lt;b&gt;适用范围：&lt;/b&gt;# ·全场通用##&lt;b&gt;使用规则：&lt;/b&gt;# ·无需预约，消费高峰期可能需要等位# ·商家提供免费WIFI# ·停车位收费标准：详询商家# ·不可叠加使用</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v># ·不计算卡座消费内容</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;b&gt;使用时间：&lt;/b&gt;# ·21:00-03:00##&lt;b&gt;适用范围：&lt;/b&gt;# ·全场通用##&lt;b&gt;使用规则：&lt;/b&gt;# ·无需预约，消费高峰期可能需要等位# ·商家提供免费WIFI# ·停车位收费标准：详询商家# ·不可叠加使用# ·不计算卡座消费内容</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D14" t="str">
+        <f>CONCATENATE(F14,D10,F15)</f>
+        <v>&lt;font size=20&gt;&lt;b&gt;使用时间：&lt;/b&gt;# ·21:00-03:00##&lt;b&gt;适用范围：&lt;/b&gt;# ·全场通用##&lt;b&gt;使用规则：&lt;/b&gt;# ·无需预约，消费高峰期可能需要等位# ·商家提供免费WIFI# ·停车位收费标准：详询商家# ·不可叠加使用# ·不计算卡座消费内容&lt;/font&gt;</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/config/chargeList.xlsx
+++ b/src/main/resources/config/chargeList.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1294E8-6FBD-42C5-8D98-9C1B4171B843}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="门店信息" sheetId="4" r:id="rId1"/>
@@ -12,7 +13,14 @@
     <sheet name="充值" sheetId="2" r:id="rId3"/>
     <sheet name="使用说明" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -360,7 +368,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,7 +562,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,9 +595,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,6 +647,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -797,7 +839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -854,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1199,11 +1241,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1562,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
